--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Inhba-Acvr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Inhba-Acvr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,6 +88,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Acvr1b</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1316705</v>
+        <v>0.7746584999999999</v>
       </c>
       <c r="H2">
-        <v>0.263341</v>
+        <v>1.549317</v>
       </c>
       <c r="I2">
-        <v>0.01137932438107136</v>
+        <v>0.02984903581813527</v>
       </c>
       <c r="J2">
-        <v>0.008953606087368216</v>
+        <v>0.02282525667008985</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.016684</v>
+        <v>3.1456405</v>
       </c>
       <c r="N2">
-        <v>6.033367999999999</v>
+        <v>6.291281</v>
       </c>
       <c r="O2">
-        <v>0.1358466530961894</v>
+        <v>0.1231584448857264</v>
       </c>
       <c r="P2">
-        <v>0.09965128472037957</v>
+        <v>0.08851973902715565</v>
       </c>
       <c r="Q2">
-        <v>0.397208290622</v>
+        <v>2.436797151269249</v>
       </c>
       <c r="R2">
-        <v>1.588833162488</v>
+        <v>9.747188605076998</v>
       </c>
       <c r="S2">
-        <v>0.001545843131664411</v>
+        <v>0.003676160832699885</v>
       </c>
       <c r="T2">
-        <v>0.0008922383494864538</v>
+        <v>0.002020485763664197</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1316705</v>
+        <v>0.7746584999999999</v>
       </c>
       <c r="H3">
-        <v>0.263341</v>
+        <v>1.549317</v>
       </c>
       <c r="I3">
-        <v>0.01137932438107136</v>
+        <v>0.02984903581813527</v>
       </c>
       <c r="J3">
-        <v>0.008953606087368216</v>
+        <v>0.02282525667008985</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>12.591557</v>
       </c>
       <c r="O3">
-        <v>0.1890067455656493</v>
+        <v>0.1643286509069703</v>
       </c>
       <c r="P3">
-        <v>0.2079708765783703</v>
+        <v>0.1771660397279274</v>
       </c>
       <c r="Q3">
-        <v>0.5526455353228333</v>
+        <v>3.2513855527615</v>
       </c>
       <c r="R3">
-        <v>3.315873211937</v>
+        <v>19.508313316569</v>
       </c>
       <c r="S3">
-        <v>0.002150769068002143</v>
+        <v>0.004905051786868004</v>
       </c>
       <c r="T3">
-        <v>0.0018620893065274</v>
+        <v>0.00404386033001328</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1316705</v>
+        <v>0.7746584999999999</v>
       </c>
       <c r="H4">
-        <v>0.263341</v>
+        <v>1.549317</v>
       </c>
       <c r="I4">
-        <v>0.01137932438107136</v>
+        <v>0.02984903581813527</v>
       </c>
       <c r="J4">
-        <v>0.008953606087368216</v>
+        <v>0.02282525667008985</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.727411333333333</v>
+        <v>6.177416000000001</v>
       </c>
       <c r="N4">
-        <v>14.182234</v>
+        <v>18.532248</v>
       </c>
       <c r="O4">
-        <v>0.2128837516433035</v>
+        <v>0.241858835417526</v>
       </c>
       <c r="P4">
-        <v>0.234243599645347</v>
+        <v>0.2607528985824235</v>
       </c>
       <c r="Q4">
-        <v>0.6224606139656667</v>
+        <v>4.785387812436</v>
       </c>
       <c r="R4">
-        <v>3.734763683794</v>
+        <v>28.712326874616</v>
       </c>
       <c r="S4">
-        <v>0.002422473265408583</v>
+        <v>0.007219253041310219</v>
       </c>
       <c r="T4">
-        <v>0.002097324919711622</v>
+        <v>0.005951751837613723</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1316705</v>
+        <v>0.7746584999999999</v>
       </c>
       <c r="H5">
-        <v>0.263341</v>
+        <v>1.549317</v>
       </c>
       <c r="I5">
-        <v>0.01137932438107136</v>
+        <v>0.02984903581813527</v>
       </c>
       <c r="J5">
-        <v>0.008953606087368216</v>
+        <v>0.02282525667008985</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.058124</v>
+        <v>2.4065245</v>
       </c>
       <c r="N5">
-        <v>6.116248000000001</v>
+        <v>4.813049</v>
       </c>
       <c r="O5">
-        <v>0.1377127700989335</v>
+        <v>0.09422049817816125</v>
       </c>
       <c r="P5">
-        <v>0.1010201882047394</v>
+        <v>0.06772068222750066</v>
       </c>
       <c r="Q5">
-        <v>0.402664716142</v>
+        <v>1.86423465938325</v>
       </c>
       <c r="R5">
-        <v>1.610658864568</v>
+        <v>7.456938637533</v>
       </c>
       <c r="S5">
-        <v>0.001567078282371669</v>
+        <v>0.002812391024922485</v>
       </c>
       <c r="T5">
-        <v>0.0009044949720570377</v>
+        <v>0.001545741953716295</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1316705</v>
+        <v>0.7746584999999999</v>
       </c>
       <c r="H6">
-        <v>0.263341</v>
+        <v>1.549317</v>
       </c>
       <c r="I6">
-        <v>0.01137932438107136</v>
+        <v>0.02984903581813527</v>
       </c>
       <c r="J6">
-        <v>0.008953606087368216</v>
+        <v>0.02282525667008985</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.237791666666666</v>
+        <v>6.172389333333332</v>
       </c>
       <c r="N6">
-        <v>6.713374999999999</v>
+        <v>18.517168</v>
       </c>
       <c r="O6">
-        <v>0.1007717441545784</v>
+        <v>0.2416620308400081</v>
       </c>
       <c r="P6">
-        <v>0.1108827513189446</v>
+        <v>0.2605407195898574</v>
       </c>
       <c r="Q6">
-        <v>0.2946511476458333</v>
+        <v>4.781493862375998</v>
       </c>
       <c r="R6">
-        <v>1.767906885875</v>
+        <v>28.688963174256</v>
       </c>
       <c r="S6">
-        <v>0.001146714365181279</v>
+        <v>0.007213378614426714</v>
       </c>
       <c r="T6">
-        <v>0.0009928004771934385</v>
+        <v>0.005946908797648402</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1316705</v>
+        <v>0.7746584999999999</v>
       </c>
       <c r="H7">
-        <v>0.263341</v>
+        <v>1.549317</v>
       </c>
       <c r="I7">
-        <v>0.01137932438107136</v>
+        <v>0.02984903581813527</v>
       </c>
       <c r="J7">
-        <v>0.008953606087368216</v>
+        <v>0.02282525667008985</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.969342333333334</v>
+        <v>3.442255333333333</v>
       </c>
       <c r="N7">
-        <v>14.908027</v>
+        <v>10.326766</v>
       </c>
       <c r="O7">
-        <v>0.2237783354413461</v>
+        <v>0.134771539771608</v>
       </c>
       <c r="P7">
-        <v>0.2462312995322192</v>
+        <v>0.1452999208451354</v>
       </c>
       <c r="Q7">
-        <v>0.6543157897011667</v>
+        <v>2.666572353137</v>
       </c>
       <c r="R7">
-        <v>3.925894738207</v>
+        <v>15.999434118822</v>
       </c>
       <c r="S7">
-        <v>0.002546446268443274</v>
+        <v>0.004022800517907971</v>
       </c>
       <c r="T7">
-        <v>0.002204658062392264</v>
+        <v>0.003316507987433953</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>18.204484</v>
       </c>
       <c r="I8">
-        <v>0.5244270828216987</v>
+        <v>0.2338175660486397</v>
       </c>
       <c r="J8">
-        <v>0.6189532915869436</v>
+        <v>0.2681969021488463</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.016684</v>
+        <v>3.1456405</v>
       </c>
       <c r="N8">
-        <v>6.033367999999999</v>
+        <v>6.291281</v>
       </c>
       <c r="O8">
-        <v>0.1358466530961894</v>
+        <v>0.1231584448857264</v>
       </c>
       <c r="P8">
-        <v>0.09965128472037957</v>
+        <v>0.08851973902715565</v>
       </c>
       <c r="Q8">
-        <v>18.30572520368533</v>
+        <v>19.08825405066733</v>
       </c>
       <c r="R8">
-        <v>109.834351222112</v>
+        <v>114.529524304004</v>
       </c>
       <c r="S8">
-        <v>0.07124166399432588</v>
+        <v>0.02879660782151608</v>
       </c>
       <c r="T8">
-        <v>0.06167949068854663</v>
+        <v>0.02374071978610747</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>18.204484</v>
       </c>
       <c r="I9">
-        <v>0.5244270828216987</v>
+        <v>0.2338175660486397</v>
       </c>
       <c r="J9">
-        <v>0.6189532915869436</v>
+        <v>0.2681969021488463</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>12.591557</v>
       </c>
       <c r="O9">
-        <v>0.1890067455656493</v>
+        <v>0.1643286509069703</v>
       </c>
       <c r="P9">
-        <v>0.2079708765783703</v>
+        <v>0.1771660397279274</v>
       </c>
       <c r="Q9">
         <v>25.46919977128756</v>
@@ -1013,10 +1013,10 @@
         <v>229.222797941588</v>
       </c>
       <c r="S9">
-        <v>0.09912025621061647</v>
+        <v>0.03842292518712438</v>
       </c>
       <c r="T9">
-        <v>0.1287242586124043</v>
+        <v>0.04751538302100957</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>18.204484</v>
       </c>
       <c r="I10">
-        <v>0.5244270828216987</v>
+        <v>0.2338175660486397</v>
       </c>
       <c r="J10">
-        <v>0.6189532915869436</v>
+        <v>0.2681969021488463</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.727411333333333</v>
+        <v>6.177416000000001</v>
       </c>
       <c r="N10">
-        <v>14.182234</v>
+        <v>18.532248</v>
       </c>
       <c r="O10">
-        <v>0.2128837516433035</v>
+        <v>0.241858835417526</v>
       </c>
       <c r="P10">
-        <v>0.234243599645347</v>
+        <v>0.2607528985824235</v>
       </c>
       <c r="Q10">
-        <v>28.68669465969511</v>
+        <v>37.48555691111467</v>
       </c>
       <c r="R10">
-        <v>258.180251937256</v>
+        <v>337.3700122000321</v>
       </c>
       <c r="S10">
-        <v>0.1116420048544367</v>
+        <v>0.05655084422468448</v>
       </c>
       <c r="T10">
-        <v>0.1449858470336617</v>
+        <v>0.06993311962613827</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>18.204484</v>
       </c>
       <c r="I11">
-        <v>0.5244270828216987</v>
+        <v>0.2338175660486397</v>
       </c>
       <c r="J11">
-        <v>0.6189532915869436</v>
+        <v>0.2681969021488463</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.058124</v>
+        <v>2.4065245</v>
       </c>
       <c r="N11">
-        <v>6.116248000000001</v>
+        <v>4.813049</v>
       </c>
       <c r="O11">
-        <v>0.1377127700989335</v>
+        <v>0.09422049817816125</v>
       </c>
       <c r="P11">
-        <v>0.1010201882047394</v>
+        <v>0.06772068222750066</v>
       </c>
       <c r="Q11">
-        <v>18.55718980933867</v>
+        <v>14.60317891861934</v>
       </c>
       <c r="R11">
-        <v>111.343138856032</v>
+        <v>87.61907351171601</v>
       </c>
       <c r="S11">
-        <v>0.07222030629027894</v>
+        <v>0.02203040755590796</v>
       </c>
       <c r="T11">
-        <v>0.06252677800605599</v>
+        <v>0.01816247718482211</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>18.204484</v>
       </c>
       <c r="I12">
-        <v>0.5244270828216987</v>
+        <v>0.2338175660486397</v>
       </c>
       <c r="J12">
-        <v>0.6189532915869436</v>
+        <v>0.2681969021488463</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.237791666666666</v>
+        <v>6.172389333333332</v>
       </c>
       <c r="N12">
-        <v>6.713374999999999</v>
+        <v>18.517168</v>
       </c>
       <c r="O12">
-        <v>0.1007717441545784</v>
+        <v>0.2416620308400081</v>
       </c>
       <c r="P12">
-        <v>0.1108827513189446</v>
+        <v>0.2605407195898574</v>
       </c>
       <c r="Q12">
-        <v>13.57928086372222</v>
+        <v>37.45505428681244</v>
       </c>
       <c r="R12">
-        <v>122.2135277735</v>
+        <v>337.095488581312</v>
       </c>
       <c r="S12">
-        <v>0.05284743181784009</v>
+        <v>0.05650482785738201</v>
       </c>
       <c r="T12">
-        <v>0.06863124390907728</v>
+        <v>0.06987621387763099</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>18.204484</v>
       </c>
       <c r="I13">
-        <v>0.5244270828216987</v>
+        <v>0.2338175660486397</v>
       </c>
       <c r="J13">
-        <v>0.6189532915869436</v>
+        <v>0.2681969021488463</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.969342333333334</v>
+        <v>3.442255333333333</v>
       </c>
       <c r="N13">
-        <v>14.908027</v>
+        <v>10.326766</v>
       </c>
       <c r="O13">
-        <v>0.2237783354413461</v>
+        <v>0.134771539771608</v>
       </c>
       <c r="P13">
-        <v>0.2462312995322192</v>
+        <v>0.1452999208451354</v>
       </c>
       <c r="Q13">
-        <v>30.15477099922978</v>
+        <v>20.88816071319378</v>
       </c>
       <c r="R13">
-        <v>271.392938993068</v>
+        <v>187.993446418744</v>
       </c>
       <c r="S13">
-        <v>0.1173554196542007</v>
+        <v>0.03151195340202484</v>
       </c>
       <c r="T13">
-        <v>0.1524056733371977</v>
+        <v>0.03896898865313788</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.05668599999999999</v>
+        <v>0.7407206666666667</v>
       </c>
       <c r="H14">
-        <v>0.170058</v>
+        <v>2.222162</v>
       </c>
       <c r="I14">
-        <v>0.0048989590065004</v>
+        <v>0.02854134784626565</v>
       </c>
       <c r="J14">
-        <v>0.005781979805672736</v>
+        <v>0.03273792129855944</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.016684</v>
+        <v>3.1456405</v>
       </c>
       <c r="N14">
-        <v>6.033367999999999</v>
+        <v>6.291281</v>
       </c>
       <c r="O14">
-        <v>0.1358466530961894</v>
+        <v>0.1231584448857264</v>
       </c>
       <c r="P14">
-        <v>0.09965128472037957</v>
+        <v>0.08851973902715565</v>
       </c>
       <c r="Q14">
-        <v>0.171003749224</v>
+        <v>2.330040928253667</v>
       </c>
       <c r="R14">
-        <v>1.026022495344</v>
+        <v>13.980245569522</v>
       </c>
       <c r="S14">
-        <v>0.0006655071846885123</v>
+        <v>0.003515108015688652</v>
       </c>
       <c r="T14">
-        <v>0.0005761817158625788</v>
+        <v>0.002897952249640042</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.05668599999999999</v>
+        <v>0.7407206666666667</v>
       </c>
       <c r="H15">
-        <v>0.170058</v>
+        <v>2.222162</v>
       </c>
       <c r="I15">
-        <v>0.0048989590065004</v>
+        <v>0.02854134784626565</v>
       </c>
       <c r="J15">
-        <v>0.005781979805672736</v>
+        <v>0.03273792129855944</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>12.591557</v>
       </c>
       <c r="O15">
-        <v>0.1890067455656493</v>
+        <v>0.1643286509069703</v>
       </c>
       <c r="P15">
-        <v>0.2079708765783703</v>
+        <v>0.1771660397279274</v>
       </c>
       <c r="Q15">
-        <v>0.2379216667006666</v>
+        <v>3.108942165137111</v>
       </c>
       <c r="R15">
-        <v>2.141295000306</v>
+        <v>27.980479486234</v>
       </c>
       <c r="S15">
-        <v>0.0009259362984781669</v>
+        <v>0.004690161186643395</v>
       </c>
       <c r="T15">
-        <v>0.001202483408544194</v>
+        <v>0.005800047865390343</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.05668599999999999</v>
+        <v>0.7407206666666667</v>
       </c>
       <c r="H16">
-        <v>0.170058</v>
+        <v>2.222162</v>
       </c>
       <c r="I16">
-        <v>0.0048989590065004</v>
+        <v>0.02854134784626565</v>
       </c>
       <c r="J16">
-        <v>0.005781979805672736</v>
+        <v>0.03273792129855944</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.727411333333333</v>
+        <v>6.177416000000001</v>
       </c>
       <c r="N16">
-        <v>14.182234</v>
+        <v>18.532248</v>
       </c>
       <c r="O16">
-        <v>0.2128837516433035</v>
+        <v>0.241858835417526</v>
       </c>
       <c r="P16">
-        <v>0.234243599645347</v>
+        <v>0.2607528985824235</v>
       </c>
       <c r="Q16">
-        <v>0.2679780388413333</v>
+        <v>4.575739697797334</v>
       </c>
       <c r="R16">
-        <v>2.411802349572</v>
+        <v>41.181657280176</v>
       </c>
       <c r="S16">
-        <v>0.001042908772450556</v>
+        <v>0.006902977151344324</v>
       </c>
       <c r="T16">
-        <v>0.001354391762757486</v>
+        <v>0.008536507872162629</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.05668599999999999</v>
+        <v>0.7407206666666667</v>
       </c>
       <c r="H17">
-        <v>0.170058</v>
+        <v>2.222162</v>
       </c>
       <c r="I17">
-        <v>0.0048989590065004</v>
+        <v>0.02854134784626565</v>
       </c>
       <c r="J17">
-        <v>0.005781979805672736</v>
+        <v>0.03273792129855944</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.058124</v>
+        <v>2.4065245</v>
       </c>
       <c r="N17">
-        <v>6.116248000000001</v>
+        <v>4.813049</v>
       </c>
       <c r="O17">
-        <v>0.1377127700989335</v>
+        <v>0.09422049817816125</v>
       </c>
       <c r="P17">
-        <v>0.1010201882047394</v>
+        <v>0.06772068222750066</v>
       </c>
       <c r="Q17">
-        <v>0.173352817064</v>
+        <v>1.782562431989667</v>
       </c>
       <c r="R17">
-        <v>1.040116902384</v>
+        <v>10.695374591938</v>
       </c>
       <c r="S17">
-        <v>0.0006746492153862891</v>
+        <v>0.002689180012751339</v>
       </c>
       <c r="T17">
-        <v>0.0005840966881650625</v>
+        <v>0.002217034365048669</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.05668599999999999</v>
+        <v>0.7407206666666667</v>
       </c>
       <c r="H18">
-        <v>0.170058</v>
+        <v>2.222162</v>
       </c>
       <c r="I18">
-        <v>0.0048989590065004</v>
+        <v>0.02854134784626565</v>
       </c>
       <c r="J18">
-        <v>0.005781979805672736</v>
+        <v>0.03273792129855944</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.237791666666666</v>
+        <v>6.172389333333332</v>
       </c>
       <c r="N18">
-        <v>6.713374999999999</v>
+        <v>18.517168</v>
       </c>
       <c r="O18">
-        <v>0.1007717441545784</v>
+        <v>0.2416620308400081</v>
       </c>
       <c r="P18">
-        <v>0.1108827513189446</v>
+        <v>0.2605407195898574</v>
       </c>
       <c r="Q18">
-        <v>0.1268514584166666</v>
+        <v>4.572016341912889</v>
       </c>
       <c r="R18">
-        <v>1.14166312575</v>
+        <v>41.148147077216</v>
       </c>
       <c r="S18">
-        <v>0.0004936766436268256</v>
+        <v>0.006897360083439648</v>
       </c>
       <c r="T18">
-        <v>0.0006411218289235697</v>
+        <v>0.008529561573002796</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.05668599999999999</v>
+        <v>0.7407206666666667</v>
       </c>
       <c r="H19">
-        <v>0.170058</v>
+        <v>2.222162</v>
       </c>
       <c r="I19">
-        <v>0.0048989590065004</v>
+        <v>0.02854134784626565</v>
       </c>
       <c r="J19">
-        <v>0.005781979805672736</v>
+        <v>0.03273792129855944</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.969342333333334</v>
+        <v>3.442255333333333</v>
       </c>
       <c r="N19">
-        <v>14.908027</v>
+        <v>10.326766</v>
       </c>
       <c r="O19">
-        <v>0.2237783354413461</v>
+        <v>0.134771539771608</v>
       </c>
       <c r="P19">
-        <v>0.2462312995322192</v>
+        <v>0.1452999208451354</v>
       </c>
       <c r="Q19">
-        <v>0.2816921395073333</v>
+        <v>2.549749665343556</v>
       </c>
       <c r="R19">
-        <v>2.535229255566</v>
+        <v>22.947746988092</v>
       </c>
       <c r="S19">
-        <v>0.00109628089187005</v>
+        <v>0.00384656139639829</v>
       </c>
       <c r="T19">
-        <v>0.001423704401419846</v>
+        <v>0.004756817373314958</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.1696935</v>
+        <v>9.205673000000001</v>
       </c>
       <c r="H20">
-        <v>10.339387</v>
+        <v>18.411346</v>
       </c>
       <c r="I20">
-        <v>0.4467790377283911</v>
+        <v>0.3547117382782747</v>
       </c>
       <c r="J20">
-        <v>0.351539632578504</v>
+        <v>0.2712444890825004</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.016684</v>
+        <v>3.1456405</v>
       </c>
       <c r="N20">
-        <v>6.033367999999999</v>
+        <v>6.291281</v>
       </c>
       <c r="O20">
-        <v>0.1358466530961894</v>
+        <v>0.1231584448857264</v>
       </c>
       <c r="P20">
-        <v>0.09965128472037957</v>
+        <v>0.08851973902715565</v>
       </c>
       <c r="Q20">
-        <v>15.595331666354</v>
+        <v>28.9577378185565</v>
       </c>
       <c r="R20">
-        <v>62.381326665416</v>
+        <v>115.830951274226</v>
       </c>
       <c r="S20">
-        <v>0.06069343694893805</v>
+        <v>0.04368574606906508</v>
       </c>
       <c r="T20">
-        <v>0.03503137601657812</v>
+        <v>0.0240104913861371</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.1696935</v>
+        <v>9.205673000000001</v>
       </c>
       <c r="H21">
-        <v>10.339387</v>
+        <v>18.411346</v>
       </c>
       <c r="I21">
-        <v>0.4467790377283911</v>
+        <v>0.3547117382782747</v>
       </c>
       <c r="J21">
-        <v>0.351539632578504</v>
+        <v>0.2712444890825004</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>12.591557</v>
       </c>
       <c r="O21">
-        <v>0.1890067455656493</v>
+        <v>0.1643286509069703</v>
       </c>
       <c r="P21">
-        <v>0.2079708765783703</v>
+        <v>0.1771660397279274</v>
       </c>
       <c r="Q21">
-        <v>21.69816345925983</v>
+        <v>38.63791876762034</v>
       </c>
       <c r="R21">
-        <v>130.188980755559</v>
+        <v>231.827512605722</v>
       </c>
       <c r="S21">
-        <v>0.08444425190799562</v>
+        <v>0.0582893014121352</v>
       </c>
       <c r="T21">
-        <v>0.07311000553938968</v>
+        <v>0.04805531192877164</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.1696935</v>
+        <v>9.205673000000001</v>
       </c>
       <c r="H22">
-        <v>10.339387</v>
+        <v>18.411346</v>
       </c>
       <c r="I22">
-        <v>0.4467790377283911</v>
+        <v>0.3547117382782747</v>
       </c>
       <c r="J22">
-        <v>0.351539632578504</v>
+        <v>0.2712444890825004</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.727411333333333</v>
+        <v>6.177416000000001</v>
       </c>
       <c r="N22">
-        <v>14.182234</v>
+        <v>18.532248</v>
       </c>
       <c r="O22">
-        <v>0.2128837516433035</v>
+        <v>0.241858835417526</v>
       </c>
       <c r="P22">
-        <v>0.234243599645347</v>
+        <v>0.2607528985824235</v>
       </c>
       <c r="Q22">
-        <v>24.43926764175967</v>
+        <v>56.86727168096802</v>
       </c>
       <c r="R22">
-        <v>146.635605850558</v>
+        <v>341.2036300858081</v>
       </c>
       <c r="S22">
-        <v>0.09511199770720494</v>
+        <v>0.08579016792890981</v>
       </c>
       <c r="T22">
-        <v>0.08234590895319145</v>
+        <v>0.07072778675277049</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.1696935</v>
+        <v>9.205673000000001</v>
       </c>
       <c r="H23">
-        <v>10.339387</v>
+        <v>18.411346</v>
       </c>
       <c r="I23">
-        <v>0.4467790377283911</v>
+        <v>0.3547117382782747</v>
       </c>
       <c r="J23">
-        <v>0.351539632578504</v>
+        <v>0.2712444890825004</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.058124</v>
+        <v>2.4065245</v>
       </c>
       <c r="N23">
-        <v>6.116248000000001</v>
+        <v>4.813049</v>
       </c>
       <c r="O23">
-        <v>0.1377127700989335</v>
+        <v>0.09422049817816125</v>
       </c>
       <c r="P23">
-        <v>0.1010201882047394</v>
+        <v>0.06772068222750066</v>
       </c>
       <c r="Q23">
-        <v>15.809563764994</v>
+        <v>22.1536776134885</v>
       </c>
       <c r="R23">
-        <v>63.23825505997601</v>
+        <v>88.61471045395402</v>
       </c>
       <c r="S23">
-        <v>0.06152717890771266</v>
+        <v>0.03342111669022059</v>
       </c>
       <c r="T23">
-        <v>0.03551259984450542</v>
+        <v>0.01836886185111678</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,13 +1892,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.1696935</v>
+        <v>9.205673000000001</v>
       </c>
       <c r="H24">
-        <v>10.339387</v>
+        <v>18.411346</v>
       </c>
       <c r="I24">
-        <v>0.4467790377283911</v>
+        <v>0.3547117382782747</v>
       </c>
       <c r="J24">
-        <v>0.351539632578504</v>
+        <v>0.2712444890825004</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.237791666666666</v>
+        <v>6.172389333333332</v>
       </c>
       <c r="N24">
-        <v>6.713374999999999</v>
+        <v>18.517168</v>
       </c>
       <c r="O24">
-        <v>0.1007717441545784</v>
+        <v>0.2416620308400081</v>
       </c>
       <c r="P24">
-        <v>0.1108827513189446</v>
+        <v>0.2605407195898574</v>
       </c>
       <c r="Q24">
-        <v>11.56869703352083</v>
+        <v>56.82099783135466</v>
       </c>
       <c r="R24">
-        <v>69.41218220112499</v>
+        <v>340.925986988128</v>
       </c>
       <c r="S24">
-        <v>0.04502270288359414</v>
+        <v>0.08572035903511731</v>
       </c>
       <c r="T24">
-        <v>0.03897968165795541</v>
+        <v>0.07067023437033787</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.1696935</v>
+        <v>9.205673000000001</v>
       </c>
       <c r="H25">
-        <v>10.339387</v>
+        <v>18.411346</v>
       </c>
       <c r="I25">
-        <v>0.4467790377283911</v>
+        <v>0.3547117382782747</v>
       </c>
       <c r="J25">
-        <v>0.351539632578504</v>
+        <v>0.2712444890825004</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.969342333333334</v>
+        <v>3.442255333333333</v>
       </c>
       <c r="N25">
-        <v>14.908027</v>
+        <v>10.326766</v>
       </c>
       <c r="O25">
-        <v>0.2237783354413461</v>
+        <v>0.134771539771608</v>
       </c>
       <c r="P25">
-        <v>0.2462312995322192</v>
+        <v>0.1452999208451354</v>
       </c>
       <c r="Q25">
-        <v>25.68997675990817</v>
+        <v>31.68827698117267</v>
       </c>
       <c r="R25">
-        <v>154.139860559449</v>
+        <v>190.129661887036</v>
       </c>
       <c r="S25">
-        <v>0.09997946937294572</v>
+        <v>0.04780504714282671</v>
       </c>
       <c r="T25">
-        <v>0.0865600605668839</v>
+        <v>0.03941180279336649</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.1448183333333334</v>
+        <v>8.690129000000001</v>
       </c>
       <c r="H26">
-        <v>0.434455</v>
+        <v>26.070387</v>
       </c>
       <c r="I26">
-        <v>0.01251559606233833</v>
+        <v>0.3348468670842908</v>
       </c>
       <c r="J26">
-        <v>0.01477148994151142</v>
+        <v>0.3840810336190553</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.016684</v>
+        <v>3.1456405</v>
       </c>
       <c r="N26">
-        <v>6.033367999999999</v>
+        <v>6.291281</v>
       </c>
       <c r="O26">
-        <v>0.1358466530961894</v>
+        <v>0.1231584448857264</v>
       </c>
       <c r="P26">
-        <v>0.09965128472037957</v>
+        <v>0.08851973902715565</v>
       </c>
       <c r="Q26">
-        <v>0.4368711490733334</v>
+        <v>27.3360217326245</v>
       </c>
       <c r="R26">
-        <v>2.62122689444</v>
+        <v>164.016130395747</v>
       </c>
       <c r="S26">
-        <v>0.001700201836572509</v>
+        <v>0.04123921942495878</v>
       </c>
       <c r="T26">
-        <v>0.001471997949905777</v>
+        <v>0.03399875286123897</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.1448183333333334</v>
+        <v>8.690129000000001</v>
       </c>
       <c r="H27">
-        <v>0.434455</v>
+        <v>26.070387</v>
       </c>
       <c r="I27">
-        <v>0.01251559606233833</v>
+        <v>0.3348468670842908</v>
       </c>
       <c r="J27">
-        <v>0.01477148994151142</v>
+        <v>0.3840810336190553</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>12.591557</v>
       </c>
       <c r="O27">
-        <v>0.1890067455656493</v>
+        <v>0.1643286509069703</v>
       </c>
       <c r="P27">
-        <v>0.2079708765783703</v>
+        <v>0.1771660397279274</v>
       </c>
       <c r="Q27">
-        <v>0.6078294329372224</v>
+        <v>36.47408488028434</v>
       </c>
       <c r="R27">
-        <v>5.470464896435002</v>
+        <v>328.266763922559</v>
       </c>
       <c r="S27">
-        <v>0.002365532080556823</v>
+        <v>0.0550249339283871</v>
       </c>
       <c r="T27">
-        <v>0.003072039711504709</v>
+        <v>0.06804611566089698</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.1448183333333334</v>
+        <v>8.690129000000001</v>
       </c>
       <c r="H28">
-        <v>0.434455</v>
+        <v>26.070387</v>
       </c>
       <c r="I28">
-        <v>0.01251559606233833</v>
+        <v>0.3348468670842908</v>
       </c>
       <c r="J28">
-        <v>0.01477148994151142</v>
+        <v>0.3840810336190553</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>4.727411333333333</v>
+        <v>6.177416000000001</v>
       </c>
       <c r="N28">
-        <v>14.182234</v>
+        <v>18.532248</v>
       </c>
       <c r="O28">
-        <v>0.2128837516433035</v>
+        <v>0.241858835417526</v>
       </c>
       <c r="P28">
-        <v>0.234243599645347</v>
+        <v>0.2607528985824235</v>
       </c>
       <c r="Q28">
-        <v>0.6846158302744445</v>
+        <v>53.68254192666402</v>
       </c>
       <c r="R28">
-        <v>6.16154247247</v>
+        <v>483.1428773399761</v>
       </c>
       <c r="S28">
-        <v>0.00266436704380274</v>
+        <v>0.08098567331621372</v>
       </c>
       <c r="T28">
-        <v>0.003460126976024671</v>
+        <v>0.1001502428067019</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.1448183333333334</v>
+        <v>8.690129000000001</v>
       </c>
       <c r="H29">
-        <v>0.434455</v>
+        <v>26.070387</v>
       </c>
       <c r="I29">
-        <v>0.01251559606233833</v>
+        <v>0.3348468670842908</v>
       </c>
       <c r="J29">
-        <v>0.01477148994151142</v>
+        <v>0.3840810336190553</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.058124</v>
+        <v>2.4065245</v>
       </c>
       <c r="N29">
-        <v>6.116248000000001</v>
+        <v>4.813049</v>
       </c>
       <c r="O29">
-        <v>0.1377127700989335</v>
+        <v>0.09422049817816125</v>
       </c>
       <c r="P29">
-        <v>0.1010201882047394</v>
+        <v>0.06772068222750066</v>
       </c>
       <c r="Q29">
-        <v>0.4428724208066668</v>
+        <v>20.9130083466605</v>
       </c>
       <c r="R29">
-        <v>2.657234524840001</v>
+        <v>125.478050079963</v>
       </c>
       <c r="S29">
-        <v>0.001723557403183916</v>
+        <v>0.03154943863007843</v>
       </c>
       <c r="T29">
-        <v>0.001492218693955899</v>
+        <v>0.02601022962732604</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.1448183333333334</v>
+        <v>8.690129000000001</v>
       </c>
       <c r="H30">
-        <v>0.434455</v>
+        <v>26.070387</v>
       </c>
       <c r="I30">
-        <v>0.01251559606233833</v>
+        <v>0.3348468670842908</v>
       </c>
       <c r="J30">
-        <v>0.01477148994151142</v>
+        <v>0.3840810336190553</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.237791666666666</v>
+        <v>6.172389333333332</v>
       </c>
       <c r="N30">
-        <v>6.713374999999999</v>
+        <v>18.517168</v>
       </c>
       <c r="O30">
-        <v>0.1007717441545784</v>
+        <v>0.2416620308400081</v>
       </c>
       <c r="P30">
-        <v>0.1108827513189446</v>
+        <v>0.2605407195898574</v>
       </c>
       <c r="Q30">
-        <v>0.3240732595138889</v>
+        <v>53.63885954489066</v>
       </c>
       <c r="R30">
-        <v>2.916659335625</v>
+        <v>482.7497359040159</v>
       </c>
       <c r="S30">
-        <v>0.001261218444336007</v>
+        <v>0.08091977392000399</v>
       </c>
       <c r="T30">
-        <v>0.001637903445794902</v>
+        <v>0.1000687488799249</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>8.690129000000001</v>
+      </c>
+      <c r="H31">
+        <v>26.070387</v>
+      </c>
+      <c r="I31">
+        <v>0.3348468670842908</v>
+      </c>
+      <c r="J31">
+        <v>0.3840810336190553</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3.442255333333333</v>
+      </c>
+      <c r="N31">
+        <v>10.326766</v>
+      </c>
+      <c r="O31">
+        <v>0.134771539771608</v>
+      </c>
+      <c r="P31">
+        <v>0.1452999208451354</v>
+      </c>
+      <c r="Q31">
+        <v>29.91364289760467</v>
+      </c>
+      <c r="R31">
+        <v>269.222786078442</v>
+      </c>
+      <c r="S31">
+        <v>0.04512782786464885</v>
+      </c>
+      <c r="T31">
+        <v>0.05580694378296651</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.4732043333333333</v>
+      </c>
+      <c r="H32">
+        <v>1.419613</v>
+      </c>
+      <c r="I32">
+        <v>0.01823344492439377</v>
+      </c>
+      <c r="J32">
+        <v>0.02091439718094894</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>3.1456405</v>
+      </c>
+      <c r="N32">
+        <v>6.291281</v>
+      </c>
+      <c r="O32">
+        <v>0.1231584448857264</v>
+      </c>
+      <c r="P32">
+        <v>0.08851973902715565</v>
+      </c>
+      <c r="Q32">
+        <v>1.488530715708833</v>
+      </c>
+      <c r="R32">
+        <v>8.931184294252999</v>
+      </c>
+      <c r="S32">
+        <v>0.002245602721797877</v>
+      </c>
+      <c r="T32">
+        <v>0.00185133698036788</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.4732043333333333</v>
+      </c>
+      <c r="H33">
+        <v>1.419613</v>
+      </c>
+      <c r="I33">
+        <v>0.01823344492439377</v>
+      </c>
+      <c r="J33">
+        <v>0.02091439718094894</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>4.197185666666667</v>
+      </c>
+      <c r="N33">
+        <v>12.591557</v>
+      </c>
+      <c r="O33">
+        <v>0.1643286509069703</v>
+      </c>
+      <c r="P33">
+        <v>0.1771660397279274</v>
+      </c>
+      <c r="Q33">
+        <v>1.986126445271222</v>
+      </c>
+      <c r="R33">
+        <v>17.875138007441</v>
+      </c>
+      <c r="S33">
+        <v>0.002996277405812173</v>
+      </c>
+      <c r="T33">
+        <v>0.003705320921845654</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.4732043333333333</v>
+      </c>
+      <c r="H34">
+        <v>1.419613</v>
+      </c>
+      <c r="I34">
+        <v>0.01823344492439377</v>
+      </c>
+      <c r="J34">
+        <v>0.02091439718094894</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>6.177416000000001</v>
+      </c>
+      <c r="N34">
+        <v>18.532248</v>
+      </c>
+      <c r="O34">
+        <v>0.241858835417526</v>
+      </c>
+      <c r="P34">
+        <v>0.2607528985824235</v>
+      </c>
+      <c r="Q34">
+        <v>2.923180020002667</v>
+      </c>
+      <c r="R34">
+        <v>26.308620180024</v>
+      </c>
+      <c r="S34">
+        <v>0.004409919755063479</v>
+      </c>
+      <c r="T34">
+        <v>0.005453489687036502</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.4732043333333333</v>
+      </c>
+      <c r="H35">
+        <v>1.419613</v>
+      </c>
+      <c r="I35">
+        <v>0.01823344492439377</v>
+      </c>
+      <c r="J35">
+        <v>0.02091439718094894</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>2.4065245</v>
+      </c>
+      <c r="N35">
+        <v>4.813049</v>
+      </c>
+      <c r="O35">
+        <v>0.09422049817816125</v>
+      </c>
+      <c r="P35">
+        <v>0.06772068222750066</v>
+      </c>
+      <c r="Q35">
+        <v>1.138777821672833</v>
+      </c>
+      <c r="R35">
+        <v>6.832666930037001</v>
+      </c>
+      <c r="S35">
+        <v>0.001717964264280447</v>
+      </c>
+      <c r="T35">
+        <v>0.001416337245470779</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G31">
-        <v>0.1448183333333334</v>
-      </c>
-      <c r="H31">
-        <v>0.434455</v>
-      </c>
-      <c r="I31">
-        <v>0.01251559606233833</v>
-      </c>
-      <c r="J31">
-        <v>0.01477148994151142</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>4.969342333333334</v>
-      </c>
-      <c r="N31">
-        <v>14.908027</v>
-      </c>
-      <c r="O31">
-        <v>0.2237783354413461</v>
-      </c>
-      <c r="P31">
-        <v>0.2462312995322192</v>
-      </c>
-      <c r="Q31">
-        <v>0.7196518744761112</v>
-      </c>
-      <c r="R31">
-        <v>6.476866870285001</v>
-      </c>
-      <c r="S31">
-        <v>0.002800719253886337</v>
-      </c>
-      <c r="T31">
-        <v>0.003637203164325462</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.4732043333333333</v>
+      </c>
+      <c r="H36">
+        <v>1.419613</v>
+      </c>
+      <c r="I36">
+        <v>0.01823344492439377</v>
+      </c>
+      <c r="J36">
+        <v>0.02091439718094894</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>6.172389333333332</v>
+      </c>
+      <c r="N36">
+        <v>18.517168</v>
+      </c>
+      <c r="O36">
+        <v>0.2416620308400081</v>
+      </c>
+      <c r="P36">
+        <v>0.2605407195898574</v>
+      </c>
+      <c r="Q36">
+        <v>2.920801379553777</v>
+      </c>
+      <c r="R36">
+        <v>26.287212415984</v>
+      </c>
+      <c r="S36">
+        <v>0.004406331329638437</v>
+      </c>
+      <c r="T36">
+        <v>0.005449052091312523</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.4732043333333333</v>
+      </c>
+      <c r="H37">
+        <v>1.419613</v>
+      </c>
+      <c r="I37">
+        <v>0.01823344492439377</v>
+      </c>
+      <c r="J37">
+        <v>0.02091439718094894</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>3.442255333333333</v>
+      </c>
+      <c r="N37">
+        <v>10.326766</v>
+      </c>
+      <c r="O37">
+        <v>0.134771539771608</v>
+      </c>
+      <c r="P37">
+        <v>0.1452999208451354</v>
+      </c>
+      <c r="Q37">
+        <v>1.628890140173111</v>
+      </c>
+      <c r="R37">
+        <v>14.660011261558</v>
+      </c>
+      <c r="S37">
+        <v>0.00245734944780136</v>
+      </c>
+      <c r="T37">
+        <v>0.003038860254915604</v>
       </c>
     </row>
   </sheetData>
